--- a/MyFrankCrum_EMP/Segment_A.xlsx
+++ b/MyFrankCrum_EMP/Segment_A.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50A63F-896E-49F0-A1AA-6E103ED11697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA2DBF-A076-4D56-8FE9-6AE1D42BB37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's_Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Common_Data" sheetId="2" r:id="rId2"/>
     <sheet name="WSE_Login_Page" sheetId="3" r:id="rId3"/>
-    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId4"/>
-    <sheet name="Current_Paycheck" sheetId="5" r:id="rId5"/>
-    <sheet name="Paycheck_History" sheetId="6" r:id="rId6"/>
-    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId7"/>
+    <sheet name="ER_Login_Page" sheetId="8" r:id="rId4"/>
+    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId5"/>
+    <sheet name="Current_Paycheck" sheetId="5" r:id="rId6"/>
+    <sheet name="Paycheck_History" sheetId="6" r:id="rId7"/>
+    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>TC's ID</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>A0F21</t>
-  </si>
-  <si>
     <t>TC Name</t>
   </si>
   <si>
@@ -102,12 +100,6 @@
     <t>Paycheck History</t>
   </si>
   <si>
-    <t>https://stagingmfc.frankcrum.com</t>
-  </si>
-  <si>
-    <t>stagingmfc.frankcrum.com</t>
-  </si>
-  <si>
     <t>JMartin123</t>
   </si>
   <si>
@@ -118,6 +110,33 @@
   </si>
   <si>
     <t>Direct Deposit Settings</t>
+  </si>
+  <si>
+    <t>https://mfcqa01.frankcrum.com</t>
+  </si>
+  <si>
+    <t>mfcqa01.frankcrum.com</t>
+  </si>
+  <si>
+    <t>Lucky Dog</t>
+  </si>
+  <si>
+    <t>WSapp123</t>
+  </si>
+  <si>
+    <t>WSapp123$</t>
+  </si>
+  <si>
+    <t>https://mfcdev01.frankcrum.com</t>
+  </si>
+  <si>
+    <t>mfcdev01.frankcrum.com</t>
+  </si>
+  <si>
+    <t>https://mfcdev02.frankcrum.com</t>
+  </si>
+  <si>
+    <t>mfcdev02.frankcrum.com</t>
   </si>
 </sst>
 </file>
@@ -503,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13632003-B44A-473E-809C-BEC97166C5CC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +559,10 @@
         <v>8071</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +570,10 @@
         <v>8075</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +581,10 @@
         <v>8076</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +592,10 @@
         <v>8077</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -593,10 +612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85CB5E-9145-4B3C-8387-A5E2F209FA67}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,24 +648,66 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0CB150E7-EB7F-4986-861C-8C45733CE0A4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{96B74086-A603-46D4-82BA-B7BD06AE2E57}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{053331AD-6AB5-48CC-B5E1-7A70E3F69849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -654,10 +715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD931B9-2358-492E-80F5-E4F2BF0FAC33}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -711,11 +772,11 @@
       </c>
       <c r="D2" t="str">
         <f>Common_Data!B2</f>
-        <v>https://stagingmfc.frankcrum.com</v>
+        <v>https://mfcqa01.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_Data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
+        <v>mfcqa01.frankcrum.com</v>
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
@@ -727,7 +788,59 @@
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>A0F21</v>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>Common_Data!A3</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D3" t="str">
+        <f>Common_Data!B3</f>
+        <v>https://mfcdev01.frankcrum.com</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Common_Data!C3</f>
+        <v>mfcdev01.frankcrum.com</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Common_Data!D3</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Common_Data!E3</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H3" t="str">
+        <f>Common_Data!F3</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>Common_Data!A4</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Common_Data!B4</f>
+        <v>https://mfcdev02.frankcrum.com</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Common_Data!C4</f>
+        <v>mfcdev02.frankcrum.com</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Common_Data!D4</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Common_Data!E4</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H4" t="str">
+        <f>Common_Data!F4</f>
+        <v>Lucky Dog</v>
       </c>
     </row>
   </sheetData>
@@ -736,11 +849,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69516588-FCB8-4C90-B6EA-2A9B02107921}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB59DE2-ED84-4FE2-B74D-56B01BE3A218}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69516588-FCB8-4C90-B6EA-2A9B02107921}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -797,11 +977,11 @@
       </c>
       <c r="D2" t="str">
         <f>Common_Data!B2</f>
-        <v>https://stagingmfc.frankcrum.com</v>
+        <v>https://mfcqa01.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_Data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
+        <v>mfcqa01.frankcrum.com</v>
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
@@ -813,7 +993,59 @@
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>A0F21</v>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>Common_Data!A3</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D3" t="str">
+        <f>Common_Data!B3</f>
+        <v>https://mfcdev01.frankcrum.com</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Common_Data!C3</f>
+        <v>mfcdev01.frankcrum.com</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Common_Data!D3</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Common_Data!E3</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H3" t="str">
+        <f>Common_Data!F3</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>Common_Data!A4</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Common_Data!B4</f>
+        <v>https://mfcdev02.frankcrum.com</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Common_Data!C4</f>
+        <v>mfcdev02.frankcrum.com</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Common_Data!D4</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Common_Data!E4</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H4" t="str">
+        <f>Common_Data!F4</f>
+        <v>Lucky Dog</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A34D7F-273D-4EE9-BD08-7B331B23E0F9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -836,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -872,11 +1104,11 @@
       </c>
       <c r="D2" t="str">
         <f>Common_Data!B2</f>
-        <v>https://stagingmfc.frankcrum.com</v>
+        <v>https://mfcqa01.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_Data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
+        <v>mfcqa01.frankcrum.com</v>
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
@@ -888,7 +1120,7 @@
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>A0F21</v>
+        <v>Lucky Dog</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CAC0C-0656-42A5-85A7-9958B233F3BB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -911,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -947,11 +1179,11 @@
       </c>
       <c r="D2" t="str">
         <f>Common_Data!B2</f>
-        <v>https://stagingmfc.frankcrum.com</v>
+        <v>https://mfcqa01.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_Data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
+        <v>mfcqa01.frankcrum.com</v>
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
@@ -963,7 +1195,7 @@
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>A0F21</v>
+        <v>Lucky Dog</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FCDEF-0DAE-401B-A69A-B768F50E3B6B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -986,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1022,11 +1254,11 @@
       </c>
       <c r="D2" t="str">
         <f>Common_Data!B2</f>
-        <v>https://stagingmfc.frankcrum.com</v>
+        <v>https://mfcqa01.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_Data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
+        <v>mfcqa01.frankcrum.com</v>
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
@@ -1038,7 +1270,7 @@
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>A0F21</v>
+        <v>Lucky Dog</v>
       </c>
     </row>
   </sheetData>

--- a/MyFrankCrum_EMP/Segment_A.xlsx
+++ b/MyFrankCrum_EMP/Segment_A.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA2DBF-A076-4D56-8FE9-6AE1D42BB37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD968F-5167-42E6-AEF4-EA2DC7090D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's_Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Common_Data" sheetId="2" r:id="rId2"/>
     <sheet name="WSE_Login_Page" sheetId="3" r:id="rId3"/>
-    <sheet name="ER_Login_Page" sheetId="8" r:id="rId4"/>
-    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId5"/>
-    <sheet name="Current_Paycheck" sheetId="5" r:id="rId6"/>
-    <sheet name="Paycheck_History" sheetId="6" r:id="rId7"/>
-    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId8"/>
+    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Current_Paycheck" sheetId="5" r:id="rId5"/>
+    <sheet name="Paycheck_History" sheetId="6" r:id="rId6"/>
+    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>TC's ID</t>
   </si>
@@ -137,6 +136,9 @@
   </si>
   <si>
     <t>mfcdev02.frankcrum.com</t>
+  </si>
+  <si>
+    <t>ER_W_2s</t>
   </si>
 </sst>
 </file>
@@ -520,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13632003-B44A-473E-809C-BEC97166C5CC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +600,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>8101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" location="WSE_Login_Page!A1" display="WSE_Login_Page" xr:uid="{8A9213C9-1A75-4FDC-B0B8-A008129BB639}"/>
@@ -605,6 +618,7 @@
     <hyperlink ref="C4" location="Current_Paycheck!A1" display="Current_Paycheck" xr:uid="{BB32D9EB-0858-4C9F-A817-79693B70EE9F}"/>
     <hyperlink ref="C5" location="Paycheck_History!A1" display="Paycheck_History" xr:uid="{09401BCA-FC0D-42B9-BBC6-401BC6E37CB7}"/>
     <hyperlink ref="C6" location="Direct_Deposit_Settings!A1" display="Direct_Deposit_Settings" xr:uid="{C448DC7A-CC82-421E-AF01-E0945571BF4A}"/>
+    <hyperlink ref="C7" location="ER_W_2s!A1" display="ER_W_2s" xr:uid="{9E988C09-4EAB-441B-9262-BCE70B1693B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -614,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85CB5E-9145-4B3C-8387-A5E2F209FA67}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -717,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD931B9-2358-492E-80F5-E4F2BF0FAC33}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,73 +863,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB59DE2-ED84-4FE2-B74D-56B01BE3A218}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="str">
-        <f>Common_Data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Common_Data!B2</f>
-        <v>https://mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Common_Data!C2</f>
-        <v>mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Common_Data!D2</f>
-        <v>JMartin123</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="H2" t="str">
-        <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69516588-FCB8-4C90-B6EA-2A9B02107921}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -1053,7 +1000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A34D7F-273D-4EE9-BD08-7B331B23E0F9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1128,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CAC0C-0656-42A5-85A7-9958B233F3BB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1203,7 +1150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FCDEF-0DAE-401B-A69A-B768F50E3B6B}">
   <dimension ref="A1:H2"/>
   <sheetViews>

--- a/MyFrankCrum_EMP/Segment_A.xlsx
+++ b/MyFrankCrum_EMP/Segment_A.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD968F-5167-42E6-AEF4-EA2DC7090D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CDCD9-0342-428D-AFA4-D077DE7D997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="12" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's_Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Common_Data" sheetId="2" r:id="rId2"/>
-    <sheet name="WSE_Login_Page" sheetId="3" r:id="rId3"/>
-    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId4"/>
-    <sheet name="Current_Paycheck" sheetId="5" r:id="rId5"/>
-    <sheet name="Paycheck_History" sheetId="6" r:id="rId6"/>
-    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId7"/>
+    <sheet name="Contacts" sheetId="12" r:id="rId3"/>
+    <sheet name="Change_Password_Security_Qsn" sheetId="13" r:id="rId4"/>
+    <sheet name="EE_My W-2s" sheetId="10" r:id="rId5"/>
+    <sheet name="EE_Submit_a_Request" sheetId="11" r:id="rId6"/>
+    <sheet name="Delivery_Agreement_of_W_2s" sheetId="9" r:id="rId7"/>
+    <sheet name="Pay &amp; Tax Details(Read)" sheetId="8" r:id="rId8"/>
+    <sheet name="WSE_Login_Page" sheetId="3" r:id="rId9"/>
+    <sheet name="WSE_Home_Page" sheetId="4" r:id="rId10"/>
+    <sheet name="Current_Paycheck" sheetId="5" r:id="rId11"/>
+    <sheet name="Paycheck_History" sheetId="6" r:id="rId12"/>
+    <sheet name="Direct_Deposit_Settings" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>TC's ID</t>
   </si>
@@ -99,25 +105,49 @@
     <t>Paycheck History</t>
   </si>
   <si>
-    <t>JMartin123</t>
-  </si>
-  <si>
-    <t>JMartin123$</t>
-  </si>
-  <si>
     <t>Direct_Deposit_Settings</t>
   </si>
   <si>
     <t>Direct Deposit Settings</t>
   </si>
   <si>
+    <t>mfcqa01.frankcrum.com</t>
+  </si>
+  <si>
+    <t>Pay &amp; Tax Details</t>
+  </si>
+  <si>
+    <t>Pay &amp; Tax Details(Read)</t>
+  </si>
+  <si>
     <t>https://mfcqa01.frankcrum.com</t>
   </si>
   <si>
-    <t>mfcqa01.frankcrum.com</t>
-  </si>
-  <si>
-    <t>Lucky Dog</t>
+    <t>Delivery_Agreement_of_W_2s</t>
+  </si>
+  <si>
+    <t>My W-2s</t>
+  </si>
+  <si>
+    <t>EE_My W2s</t>
+  </si>
+  <si>
+    <t>EE_Submit_a_Request</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>ContactEditAddress</t>
+  </si>
+  <si>
+    <t>Test Address</t>
+  </si>
+  <si>
+    <t>RequestComment</t>
+  </si>
+  <si>
+    <t>Request Comments</t>
   </si>
   <si>
     <t>WSapp123</t>
@@ -126,19 +156,40 @@
     <t>WSapp123$</t>
   </si>
   <si>
-    <t>https://mfcdev01.frankcrum.com</t>
-  </si>
-  <si>
-    <t>mfcdev01.frankcrum.com</t>
-  </si>
-  <si>
-    <t>https://mfcdev02.frankcrum.com</t>
-  </si>
-  <si>
-    <t>mfcdev02.frankcrum.com</t>
-  </si>
-  <si>
-    <t>ER_W_2s</t>
+    <t>CranApple</t>
+  </si>
+  <si>
+    <t>Change Password/Security Question</t>
+  </si>
+  <si>
+    <t>Change_Password_Security_Qsn</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>ConfirmNewPassword</t>
+  </si>
+  <si>
+    <t>WSapp123#</t>
+  </si>
+  <si>
+    <t>SecurityQuestion</t>
+  </si>
+  <si>
+    <t>NewQuestion</t>
+  </si>
+  <si>
+    <t>ConfirmNewQuestion</t>
+  </si>
+  <si>
+    <t>What is your favorite color?</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -522,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13632003-B44A-473E-809C-BEC97166C5CC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,21 +645,76 @@
         <v>8077</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>8101</v>
+        <v>8079</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>8085</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8084</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8086</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8088</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8090</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -618,256 +724,23 @@
     <hyperlink ref="C4" location="Current_Paycheck!A1" display="Current_Paycheck" xr:uid="{BB32D9EB-0858-4C9F-A817-79693B70EE9F}"/>
     <hyperlink ref="C5" location="Paycheck_History!A1" display="Paycheck_History" xr:uid="{09401BCA-FC0D-42B9-BBC6-401BC6E37CB7}"/>
     <hyperlink ref="C6" location="Direct_Deposit_Settings!A1" display="Direct_Deposit_Settings" xr:uid="{C448DC7A-CC82-421E-AF01-E0945571BF4A}"/>
-    <hyperlink ref="C7" location="ER_W_2s!A1" display="ER_W_2s" xr:uid="{9E988C09-4EAB-441B-9262-BCE70B1693B3}"/>
+    <hyperlink ref="C7" location="'Pay &amp; Tax Details(Read)'!A1" display="Pay &amp; Tax Details(Read)" xr:uid="{A50B7113-88E4-489A-A05D-2E360F20D758}"/>
+    <hyperlink ref="C8" location="Delivery_Agreement_of_W_2s!A1" display="Delivery_Agreement_of_W_2s" xr:uid="{95F2EA2B-FCCF-4E05-B2EC-83EEA64FFB00}"/>
+    <hyperlink ref="C9" location="'EE_My W-2s'!A1" display="EE_My W2s" xr:uid="{5F76CC05-9298-46C1-A213-5287C7685D40}"/>
+    <hyperlink ref="C10" location="EE_Submit_a_Request!A1" display="EE_Submit_a_Request" xr:uid="{F8BBC036-E421-40D8-84B6-7E4C67C6AA14}"/>
+    <hyperlink ref="C11" location="Contacts!A1" display="Contacts" xr:uid="{E2032129-CB02-4E7C-B05F-A6467DE64BA5}"/>
+    <hyperlink ref="C12" location="Change_Password_Security_Qsn!A1" display="Change_Password_Security_Qsn" xr:uid="{B957A77E-A849-4796-AF21-A76C578CF902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85CB5E-9145-4B3C-8387-A5E2F209FA67}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69516588-FCB8-4C90-B6EA-2A9B02107921}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0CB150E7-EB7F-4986-861C-8C45733CE0A4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{96B74086-A603-46D4-82BA-B7BD06AE2E57}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{053331AD-6AB5-48CC-B5E1-7A70E3F69849}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD931B9-2358-492E-80F5-E4F2BF0FAC33}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'TC''s_Sheet'!A2</f>
-        <v>8070</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC''s_Sheet'!B2</f>
-        <v>WSE Login Page</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Common_Data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Common_Data!B2</f>
-        <v>https://mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Common_Data!C2</f>
-        <v>mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Common_Data!D2</f>
-        <v>JMartin123</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="H2" t="str">
-        <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="str">
-        <f>Common_Data!A3</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D3" t="str">
-        <f>Common_Data!B3</f>
-        <v>https://mfcdev01.frankcrum.com</v>
-      </c>
-      <c r="E3" t="str">
-        <f>Common_Data!C3</f>
-        <v>mfcdev01.frankcrum.com</v>
-      </c>
-      <c r="F3" t="str">
-        <f>Common_Data!D3</f>
-        <v>WSapp123</v>
-      </c>
-      <c r="G3" t="str">
-        <f>Common_Data!E3</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="H3" t="str">
-        <f>Common_Data!F3</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="str">
-        <f>Common_Data!A4</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D4" t="str">
-        <f>Common_Data!B4</f>
-        <v>https://mfcdev02.frankcrum.com</v>
-      </c>
-      <c r="E4" t="str">
-        <f>Common_Data!C4</f>
-        <v>mfcdev02.frankcrum.com</v>
-      </c>
-      <c r="F4" t="str">
-        <f>Common_Data!D4</f>
-        <v>WSapp123</v>
-      </c>
-      <c r="G4" t="str">
-        <f>Common_Data!E4</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="H4" t="str">
-        <f>Common_Data!F4</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69516588-FCB8-4C90-B6EA-2A9B02107921}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,67 +805,15 @@
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
-        <v>JMartin123</v>
+        <v>WSapp123</v>
       </c>
       <c r="G2" t="str">
         <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
+        <v>WSapp123$</v>
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="str">
-        <f>Common_Data!A3</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D3" t="str">
-        <f>Common_Data!B3</f>
-        <v>https://mfcdev01.frankcrum.com</v>
-      </c>
-      <c r="E3" t="str">
-        <f>Common_Data!C3</f>
-        <v>mfcdev01.frankcrum.com</v>
-      </c>
-      <c r="F3" t="str">
-        <f>Common_Data!D3</f>
-        <v>WSapp123</v>
-      </c>
-      <c r="G3" t="str">
-        <f>Common_Data!E3</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="H3" t="str">
-        <f>Common_Data!F3</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="str">
-        <f>Common_Data!A4</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D4" t="str">
-        <f>Common_Data!B4</f>
-        <v>https://mfcdev02.frankcrum.com</v>
-      </c>
-      <c r="E4" t="str">
-        <f>Common_Data!C4</f>
-        <v>mfcdev02.frankcrum.com</v>
-      </c>
-      <c r="F4" t="str">
-        <f>Common_Data!D4</f>
-        <v>WSapp123</v>
-      </c>
-      <c r="G4" t="str">
-        <f>Common_Data!E4</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="H4" t="str">
-        <f>Common_Data!F4</f>
-        <v>Lucky Dog</v>
+        <v>CranApple</v>
       </c>
     </row>
   </sheetData>
@@ -1000,12 +821,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A34D7F-273D-4EE9-BD08-7B331B23E0F9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,15 +880,15 @@
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
-        <v>JMartin123</v>
+        <v>WSapp123</v>
       </c>
       <c r="G2" t="str">
         <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
+        <v>WSapp123$</v>
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
+        <v>CranApple</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CAC0C-0656-42A5-85A7-9958B233F3BB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1134,15 +955,15 @@
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
-        <v>JMartin123</v>
+        <v>WSapp123</v>
       </c>
       <c r="G2" t="str">
         <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
+        <v>WSapp123$</v>
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
+        <v>CranApple</v>
       </c>
     </row>
   </sheetData>
@@ -1150,12 +971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FCDEF-0DAE-401B-A69A-B768F50E3B6B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,15 +1030,653 @@
       </c>
       <c r="F2" t="str">
         <f>Common_Data!D2</f>
-        <v>JMartin123</v>
+        <v>WSapp123</v>
       </c>
       <c r="G2" t="str">
         <f>Common_Data!E2</f>
-        <v>JMartin123$</v>
+        <v>WSapp123$</v>
       </c>
       <c r="H2" t="str">
         <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
+        <v>CranApple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85CB5E-9145-4B3C-8387-A5E2F209FA67}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0CB150E7-EB7F-4986-861C-8C45733CE0A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA6F592-BC96-4E59-BA0D-C3423B3B8C4E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A11</f>
+        <v>8088</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B11</f>
+        <v>Contacts</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EE730A-12C7-43DA-86CC-F79471D035CD}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A11</f>
+        <v>8088</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B11</f>
+        <v>Contacts</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDECF8E-A94C-4251-902F-3A6DD9875991}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A9</f>
+        <v>8084</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B9</f>
+        <v>My W-2s</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F568583-2C56-4EA2-A935-6C74DDEEC1F3}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A10</f>
+        <v>8086</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B10</f>
+        <v>EE_Submit_a_Request</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FF2F13-82FD-41EF-AC4C-EC7D407888C6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A8</f>
+        <v>8085</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B8</f>
+        <v>Delivery_Agreement_of_W_2s</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C65AE-4C1B-4F06-B493-DCA99D414F74}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A7</f>
+        <v>8079</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B7</f>
+        <v>Pay &amp; Tax Details</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD931B9-2358-492E-80F5-E4F2BF0FAC33}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A2</f>
+        <v>8070</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B2</f>
+        <v>WSE Login Page</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>CranApple</v>
       </c>
     </row>
   </sheetData>
